--- a/MyProjects/Discomfort/DI-test.xlsx
+++ b/MyProjects/Discomfort/DI-test.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkCopy\ComfortIndex\MyProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkCopy\ComfortIndex\MyProjects\Discomfort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A5A751B-914C-40AF-A4C4-4DB818075232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6367CAAB-31D1-4114-97FF-C65EF4546A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24600" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24600" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DI-test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve"> TIME                    </t>
   </si>
@@ -68,13 +75,23 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>初期値で計算（DI1)</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -675,10 +692,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18963,12 +18980,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18976,7 +18993,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18999,7 +19016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -19019,7 +19036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -19043,7 +19060,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>0.125</v>
       </c>
@@ -19067,7 +19084,7 @@
         <v>41.84401456969119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>0.25</v>
       </c>
@@ -19091,7 +19108,7 @@
         <v>42.058918213238357</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>0.375</v>
       </c>
@@ -19115,7 +19132,7 @@
         <v>42.494309556822394</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>0.5</v>
       </c>
@@ -19139,7 +19156,7 @@
         <v>43.065067126467682</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>0.625</v>
       </c>
@@ -19163,7 +19180,7 @@
         <v>43.677973279791374</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>0.75</v>
       </c>
@@ -19187,7 +19204,7 @@
         <v>44.231714206003531</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>0.875</v>
       </c>
@@ -19211,7 +19228,7 @@
         <v>44.616879925906957</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -19235,7 +19252,7 @@
         <v>44.715964291897365</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1.125</v>
       </c>
@@ -19259,7 +19276,7 @@
         <v>44.574083418750007</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1.25</v>
       </c>
@@ -19283,7 +19300,7 @@
         <v>44.483445619999991</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1.375</v>
       </c>
@@ -19307,7 +19324,7 @@
         <v>44.392512306250005</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1.5</v>
       </c>
@@ -19331,7 +19348,7 @@
         <v>44.301283477500007</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1.625</v>
       </c>
@@ -19354,6 +19371,11 @@
         <f t="shared" si="0"/>
         <v>44.209759133749991</v>
       </c>
+      <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
@@ -19378,13 +19400,13 @@
         <f t="shared" si="0"/>
         <v>44.117939275000005</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>20</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <f>0.81*I17+0.01*J17*(0.99*I17-14.3)+46.3</f>
         <v>65.8</v>
       </c>
